--- a/data/lab_data.xlsx
+++ b/data/lab_data.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>09:00–11:00</t>
+          <t>21:00-23:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -501,7 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
     </row>

--- a/data/lab_data.xlsx
+++ b/data/lab_data.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Inactive</t>
+          <t>Active</t>
         </is>
       </c>
     </row>

--- a/data/lab_data.xlsx
+++ b/data/lab_data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,6 +1051,48 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>test_rider</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>21:00-23:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Emission</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Petrol</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Heavy-Duty</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>testing</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Inactive</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/lab_data.xlsx
+++ b/data/lab_data.xlsx
@@ -669,7 +669,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Active</t>
+          <t>Inactive</t>
         </is>
       </c>
     </row>
